--- a/branches/add-license-1/StructureDefinition-FoodAllergy.xlsx
+++ b/branches/add-license-1/StructureDefinition-FoodAllergy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T07:32:56+00:00</t>
+    <t>2022-10-21T07:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
